--- a/biology/Zoologie/Ascouracaridae/Ascouracaridae.xlsx
+++ b/biology/Zoologie/Ascouracaridae/Ascouracaridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ascouracaridae sont une famille d'acariens.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de la famille des Ascouracaridae présentent une taille grande à très grande (supérieure à 1 mm) et ont un hysterosoma (pl) de forme sphérique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de la famille des Ascouracaridae présentent une taille grande à très grande (supérieure à 1 mm) et ont un hysterosoma (pl) de forme sphérique.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (12 mars 2024)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (12 mars 2024) :
 Ascogastra Gaud &amp; Atyeo, 1976
 Ascouracarus Gaud &amp; Kolebinova, 1973
 Cystoidosoma Gaud &amp; Atyeo, 1976
@@ -579,10 +595,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Ascouracaridae Gaud (d) &amp; Atyeo (d), 1976[3],[1]. Cette famille a été initialement décrite, sous le taxon Ascouracarinae, comme une sous-famille des Syringobiidae[1].
-Les Ascouracaridae ont pour synonyme Ascouracarinae[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Ascouracaridae Gaud (d) &amp; Atyeo (d), 1976,. Cette famille a été initialement décrite, sous le taxon Ascouracarinae, comme une sous-famille des Syringobiidae.
+Les Ascouracaridae ont pour synonyme Ascouracarinae.
 </t>
         </is>
       </c>
@@ -611,7 +629,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>J. Gaud et W. T. Atyeo, « Ascouracarinae, n. sub. fam. des Syringobiidae, Sarcoptiformes Plumicoles », Acarologia, Les Amis d'Acarologia (d), vol. 18, no 1,‎ 9 juillet 1976, p. 143-162 (ISSN 0044-586X, 2107-7207 et 0044-586X, OCLC 782068715, lire en ligne)</t>
         </is>
